--- a/AssetLists/Asset_List.xlsx
+++ b/AssetLists/Asset_List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xepho\Desktop\Project_3_Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gihtub D schijf\Project-3-Vluchtelingen\AssetLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Deadline:</t>
   </si>
@@ -72,6 +72,57 @@
   </si>
   <si>
     <t>1 hour</t>
+  </si>
+  <si>
+    <t>Made by:</t>
+  </si>
+  <si>
+    <t>GROEP</t>
+  </si>
+  <si>
+    <t>AI Script</t>
+  </si>
+  <si>
+    <t>Following AI</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Style Guide</t>
+  </si>
+  <si>
+    <t>(0/1)</t>
+  </si>
+  <si>
+    <t>Concept Character(s)</t>
+  </si>
+  <si>
+    <t>Reference Material</t>
+  </si>
+  <si>
+    <t>(0/3)</t>
+  </si>
+  <si>
+    <t>Char. Model Final</t>
+  </si>
+  <si>
+    <t>Character Models</t>
+  </si>
+  <si>
+    <t>Char. Rig</t>
+  </si>
+  <si>
+    <t>Character Model Rig</t>
+  </si>
+  <si>
+    <t>[+]</t>
+  </si>
+  <si>
+    <t>Char. Unwrap</t>
+  </si>
+  <si>
+    <t>Unwrap Character</t>
   </si>
 </sst>
 </file>
@@ -146,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -232,11 +283,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -247,10 +309,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -568,23 +636,24 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -603,8 +672,11 @@
       <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -613,25 +685,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>42771</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>2</v>
@@ -640,224 +715,328 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="2"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>42773</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>42773</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42776</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>42790</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>42797</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AssetLists/Asset_List.xlsx
+++ b/AssetLists/Asset_List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Deadline:</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Unwrap Character</t>
+  </si>
+  <si>
+    <t>1 hour, 40 minutes</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +737,9 @@
       <c r="F3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>

--- a/AssetLists/Asset_List.xlsx
+++ b/AssetLists/Asset_List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
   <si>
     <t>Deadline:</t>
   </si>
@@ -65,67 +65,229 @@
     <t>(1/1)</t>
   </si>
   <si>
-    <t>Overall Storyline</t>
-  </si>
-  <si>
     <t>[X]</t>
   </si>
   <si>
-    <t>1 hour</t>
-  </si>
-  <si>
     <t>Made by:</t>
   </si>
   <si>
     <t>GROEP</t>
   </si>
   <si>
-    <t>AI Script</t>
-  </si>
-  <si>
     <t>Following AI</t>
   </si>
   <si>
     <t>Guy</t>
   </si>
   <si>
-    <t>Style Guide</t>
-  </si>
-  <si>
     <t>(0/1)</t>
   </si>
   <si>
-    <t>Concept Character(s)</t>
-  </si>
-  <si>
     <t>Reference Material</t>
   </si>
   <si>
-    <t>(0/3)</t>
-  </si>
-  <si>
-    <t>Char. Model Final</t>
-  </si>
-  <si>
-    <t>Character Models</t>
-  </si>
-  <si>
-    <t>Char. Rig</t>
-  </si>
-  <si>
     <t>Character Model Rig</t>
   </si>
   <si>
     <t>[+]</t>
   </si>
   <si>
-    <t>Char. Unwrap</t>
-  </si>
-  <si>
-    <t>Unwrap Character</t>
-  </si>
-  <si>
-    <t>1 hour, 40 minutes</t>
+    <t>Estimated Time:</t>
+  </si>
+  <si>
+    <t>StyleGuide</t>
+  </si>
+  <si>
+    <t>4:30 Hour(s)</t>
+  </si>
+  <si>
+    <t>1:30 Hour(s)</t>
+  </si>
+  <si>
+    <t>Storyline</t>
+  </si>
+  <si>
+    <t>Backstory</t>
+  </si>
+  <si>
+    <t>1:00 Hour(s)</t>
+  </si>
+  <si>
+    <t>3:00 Hour(s)</t>
+  </si>
+  <si>
+    <t>Concept_Character_Joey</t>
+  </si>
+  <si>
+    <t>Concept persoon</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>2:30 Hour(s)</t>
+  </si>
+  <si>
+    <t>Concept_Character_Thomas</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Concept_Character_Guy</t>
+  </si>
+  <si>
+    <t>Spr_Warmthmeter_Empty</t>
+  </si>
+  <si>
+    <t>Spr lege meter</t>
+  </si>
+  <si>
+    <t>Spr_Warmthmeter_Fill</t>
+  </si>
+  <si>
+    <t>spr gevulde meter</t>
+  </si>
+  <si>
+    <t>Spr_Warmthmeter_Cursor</t>
+  </si>
+  <si>
+    <t>geeft aan de huidige situatie</t>
+  </si>
+  <si>
+    <t>Spr_Interface_Background</t>
+  </si>
+  <si>
+    <t>Achtergrond keuze menu</t>
+  </si>
+  <si>
+    <t>Spr_Button</t>
+  </si>
+  <si>
+    <t>Sprite Button</t>
+  </si>
+  <si>
+    <t>Class_AI</t>
+  </si>
+  <si>
+    <t>1:40 Hour(s)</t>
+  </si>
+  <si>
+    <t>Class_Subtitle</t>
+  </si>
+  <si>
+    <t>Speach tekst</t>
+  </si>
+  <si>
+    <t>2:00 Hour(s)</t>
+  </si>
+  <si>
+    <t>Class_Movement</t>
+  </si>
+  <si>
+    <t>Lets player move</t>
+  </si>
+  <si>
+    <t>0:15 Hour(s)</t>
+  </si>
+  <si>
+    <t>Class_GameManager</t>
+  </si>
+  <si>
+    <t>Core GameMechanic Script</t>
+  </si>
+  <si>
+    <t>SCE_Joey</t>
+  </si>
+  <si>
+    <t>Scene Joey</t>
+  </si>
+  <si>
+    <t>5:00 Hour(s)</t>
+  </si>
+  <si>
+    <t>SCE_Guy</t>
+  </si>
+  <si>
+    <t>Scene Guy</t>
+  </si>
+  <si>
+    <t>SCE_Thomas</t>
+  </si>
+  <si>
+    <t>Scene Thomas</t>
+  </si>
+  <si>
+    <t>Char_Rig_Thomas</t>
+  </si>
+  <si>
+    <t>4:00 Hour(s) for Test, 2:00 Hour(s) for actual</t>
+  </si>
+  <si>
+    <t>Char_Rig_Guy</t>
+  </si>
+  <si>
+    <t>Char_Rig_Joey</t>
+  </si>
+  <si>
+    <t>Char_Model_Joey_Final</t>
+  </si>
+  <si>
+    <t>Character Models Itself</t>
+  </si>
+  <si>
+    <t>12:00 Hour(s)</t>
+  </si>
+  <si>
+    <t>Char_Model_Thomas_Final</t>
+  </si>
+  <si>
+    <t>Char_Model_Guy_Final</t>
+  </si>
+  <si>
+    <t>UVW_Char_Joey</t>
+  </si>
+  <si>
+    <t>Character Models UVWrap</t>
+  </si>
+  <si>
+    <t>4:00 Hour(s)</t>
+  </si>
+  <si>
+    <t>UVW_Char_Thomas</t>
+  </si>
+  <si>
+    <t>UVW_Char_Guy</t>
+  </si>
+  <si>
+    <t>TEX_Char_Joey</t>
+  </si>
+  <si>
+    <t>Character Textures</t>
+  </si>
+  <si>
+    <t>8:00 Hour(s)</t>
+  </si>
+  <si>
+    <t>TEX_Char_Thomas</t>
+  </si>
+  <si>
+    <t>9:00 Hour(s) (IVB met details)</t>
+  </si>
+  <si>
+    <t>TEX_Char_Guy</t>
+  </si>
+  <si>
+    <t>AUD_CharacterSpeach(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               Optional</t>
+  </si>
+  <si>
+    <t>Speach</t>
+  </si>
+  <si>
+    <t>(0/25)</t>
   </si>
 </sst>
 </file>
@@ -168,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +361,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -301,16 +469,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -322,6 +491,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -636,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,396 +823,882 @@
     <col min="6" max="6" width="19.5546875" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="39" customWidth="1"/>
     <col min="10" max="10" width="27.109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>42773</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42771</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>42776</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>42776</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>42776</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>42793</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>42793</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42793</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="16">
+        <v>42793</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42793</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16">
+        <v>42773</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>42771</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>42793</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>42793</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>42793</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16">
+        <v>42835</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16">
+        <v>42835</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
+        <v>42835</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16">
+        <v>42800</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16">
+        <v>42800</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
+        <v>42800</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16">
+        <v>42790</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>42790</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16">
+        <v>42790</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
+        <v>42807</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <v>42807</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
+        <v>42807</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16">
+        <v>42821</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16">
+        <v>42821</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16">
+        <v>42821</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15">
-        <v>42773</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15">
-        <v>42773</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>42776</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15">
-        <v>42790</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15">
-        <v>42797</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="2"/>
+      <c r="I31" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AssetLists/Asset_List.xlsx
+++ b/AssetLists/Asset_List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>Deadline:</t>
   </si>
@@ -288,13 +288,25 @@
   </si>
   <si>
     <t>(0/25)</t>
+  </si>
+  <si>
+    <t>OBJ_SneeuwPop</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Scenery</t>
+  </si>
+  <si>
+    <t>1:00 - 1:30 hour(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,13 +320,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Trajan Pro"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -471,28 +476,30 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -807,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,875 +836,902 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
         <v>42773</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
         <v>42771</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
         <v>42776</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
         <v>42776</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
         <v>42776</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>42793</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>42793</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>42793</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>42793</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>42793</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="6" t="s">
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>42773</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
         <v>42793</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
         <v>42793</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15">
         <v>42793</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15">
         <v>42835</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="6" t="s">
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15">
         <v>42835</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
         <v>42835</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="B19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
         <v>42800</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
         <v>42800</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="B21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15">
         <v>42800</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="6" t="s">
+      <c r="E21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15">
         <v>42790</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="15">
         <v>42790</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="B24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15">
         <v>42790</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="B25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15">
         <v>42807</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="16">
+      <c r="B26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
         <v>42807</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="B27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="15">
         <v>42807</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="16">
+      <c r="B28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="15">
         <v>42821</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="6" t="s">
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="16">
+      <c r="B29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="15">
         <v>42821</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="6" t="s">
+      <c r="E29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="B30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
         <v>42821</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="6" t="s">
+      <c r="F31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/AssetLists/Asset_List.xlsx
+++ b/AssetLists/Asset_List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="96">
   <si>
     <t>Deadline:</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>1:00 - 1:30 hour(s)</t>
+  </si>
+  <si>
+    <t>0:30 Hour(s)</t>
+  </si>
+  <si>
+    <t>0:45 Hours(s)</t>
+  </si>
+  <si>
+    <t>0:45 Hour(s)</t>
+  </si>
+  <si>
+    <t>0:20 Hour(s)</t>
   </si>
 </sst>
 </file>
@@ -816,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +837,7 @@
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" customWidth="1"/>
@@ -1038,17 +1050,19 @@
         <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1065,17 +1079,19 @@
         <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1119,12 +1135,14 @@
         <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1146,12 +1164,14 @@
         <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="H11" s="5" t="s">
         <v>32</v>
       </c>

--- a/AssetLists/Asset_List.xlsx
+++ b/AssetLists/Asset_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
   <si>
     <t>Deadline:</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>spr gevulde meter</t>
-  </si>
-  <si>
-    <t>Spr_Warmthmeter_Cursor</t>
-  </si>
-  <si>
-    <t>geeft aan de huidige situatie</t>
   </si>
   <si>
     <t>Spr_Interface_Background</t>
@@ -829,7 +823,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,13 +1050,13 @@
         <v>21</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1085,45 +1079,29 @@
         <v>21</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>42793</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2</v>
@@ -1132,7 +1110,7 @@
         <v>42793</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -1152,7 +1130,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>2</v>
@@ -1161,7 +1139,7 @@
         <v>42793</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
@@ -1170,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>32</v>
@@ -1181,7 +1159,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>2</v>
@@ -1199,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>17</v>
@@ -1210,7 +1188,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
@@ -1219,7 +1197,7 @@
         <v>42793</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -1228,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>17</v>
@@ -1239,7 +1217,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>1</v>
@@ -1248,7 +1226,7 @@
         <v>42793</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -1257,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
@@ -1268,7 +1246,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>1</v>
@@ -1277,7 +1255,7 @@
         <v>42793</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -1297,7 +1275,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>1</v>
@@ -1306,7 +1284,7 @@
         <v>42835</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -1319,12 +1297,12 @@
         <v>32</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>1</v>
@@ -1333,7 +1311,7 @@
         <v>42835</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -1346,12 +1324,12 @@
         <v>17</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>1</v>
@@ -1360,7 +1338,7 @@
         <v>42835</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -1373,12 +1351,12 @@
         <v>35</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>1</v>
@@ -1400,12 +1378,12 @@
         <v>35</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>1</v>
@@ -1427,12 +1405,12 @@
         <v>17</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>1</v>
@@ -1454,12 +1432,12 @@
         <v>32</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>1</v>
@@ -1468,7 +1446,7 @@
         <v>42790</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -1481,12 +1459,12 @@
         <v>32</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>1</v>
@@ -1495,7 +1473,7 @@
         <v>42790</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -1508,12 +1486,12 @@
         <v>35</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>1</v>
@@ -1522,7 +1500,7 @@
         <v>42790</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -1535,12 +1513,12 @@
         <v>17</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>1</v>
@@ -1549,7 +1527,7 @@
         <v>42807</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -1562,12 +1540,12 @@
         <v>32</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>1</v>
@@ -1576,7 +1554,7 @@
         <v>42807</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -1589,12 +1567,12 @@
         <v>35</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>1</v>
@@ -1603,7 +1581,7 @@
         <v>42807</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -1616,12 +1594,12 @@
         <v>17</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>1</v>
@@ -1630,7 +1608,7 @@
         <v>42821</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>18</v>
@@ -1643,12 +1621,12 @@
         <v>32</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>1</v>
@@ -1657,7 +1635,7 @@
         <v>42821</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>18</v>
@@ -1670,12 +1648,12 @@
         <v>35</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>1</v>
@@ -1684,7 +1662,7 @@
         <v>42821</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>18</v>
@@ -1697,24 +1675,24 @@
         <v>17</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>13</v>
@@ -1724,21 +1702,21 @@
         <v>15</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>18</v>
@@ -1751,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/AssetLists/Asset_List.xlsx
+++ b/AssetLists/Asset_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -823,7 +823,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,8 +1721,8 @@
       <c r="E32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>13</v>
+      <c r="F32" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
